--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,84 +40,93 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>died</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -130,64 +139,85 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>thank</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>great</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>nice</t>
   </si>
   <si>
     <t>better</t>
@@ -196,61 +226,58 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>alert</t>
@@ -259,25 +286,34 @@
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>the</t>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -635,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -775,16 +811,16 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,16 +861,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +890,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.868421052631579</v>
+        <v>0.88</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +940,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8561643835616438</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -954,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.9302325581395349</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1004,13 +1040,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1054,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7666666666666667</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.9112271540469974</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L10">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M10">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1140,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7419354838709677</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.8943661971830986</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L11">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1190,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7307692307692307</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K12">
         <v>0.8928571428571429</v>
@@ -1204,13 +1240,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.717948717948718</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.8773584905660378</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1290,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8828125</v>
       </c>
       <c r="L14">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1340,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6949152542372882</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.8636363636363636</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1390,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6923076923076923</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K16">
         <v>0.8625</v>
@@ -1404,13 +1440,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6862745098039216</v>
+        <v>0.725</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1490,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6782945736434108</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C18">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.851063829787234</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1540,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.65625</v>
+        <v>0.6918604651162791</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1558,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.8448275862068966</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1590,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6296296296296297</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="C20">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D20">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.8414634146341463</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1640,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5973154362416108</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="C21">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0.8253968253968254</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L21">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1690,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5675675675675675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.7916666666666666</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1740,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5555555555555556</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1758,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K23">
         <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1790,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5388888888888889</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C24">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K24">
         <v>0.7857142857142857</v>
@@ -1804,13 +1840,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.509090909090909</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1822,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,13 +1890,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.509090909090909</v>
+        <v>0.575</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1872,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K26">
-        <v>0.7714285714285715</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,13 +1940,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4821428571428572</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1922,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>0.7588235294117647</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="L27">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M27">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,13 +1990,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4666666666666667</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1972,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.7435897435897436</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,13 +2040,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3666666666666666</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2022,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>0.74</v>
+        <v>0.7312925170068028</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2043,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,13 +2090,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3116883116883117</v>
+        <v>0.48</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2072,19 +2108,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>0.735593220338983</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L30">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2096,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,13 +2140,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2817460317460317</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C31">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2122,19 +2158,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>0.7254901960784313</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,13 +2190,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.160857908847185</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2172,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>313</v>
+        <v>55</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K32">
-        <v>0.725</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2196,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,37 +2240,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006117192530585963</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E33">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>3087</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>0.7238493723849372</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L33">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="M33">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2246,21 +2282,45 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.3373015873015873</v>
+      </c>
+      <c r="C34">
+        <v>85</v>
+      </c>
+      <c r="D34">
+        <v>85</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>167</v>
+      </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0.7142857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2272,38 +2332,86 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.160857908847185</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>313</v>
+      </c>
       <c r="J35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K35">
+        <v>0.698744769874477</v>
+      </c>
+      <c r="L35">
+        <v>167</v>
+      </c>
+      <c r="M35">
+        <v>167</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>72</v>
       </c>
-      <c r="K35">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L35">
-        <v>19</v>
-      </c>
-      <c r="M35">
-        <v>19</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>8</v>
-      </c>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.1033333333333333</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>31</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>269</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K36">
         <v>0.696969696969697</v>
@@ -2328,17 +2436,41 @@
       </c>
     </row>
     <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.01546890106348695</v>
+      </c>
+      <c r="C37">
+        <v>48</v>
+      </c>
+      <c r="D37">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <v>0.08</v>
+      </c>
+      <c r="F37">
+        <v>0.92</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3055</v>
+      </c>
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K37">
-        <v>0.6966292134831461</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2350,21 +2482,45 @@
         <v>0</v>
       </c>
       <c r="Q37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.008849557522123894</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="E38">
+        <v>0.22</v>
+      </c>
+      <c r="F38">
+        <v>0.78</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2352</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K38">
-        <v>0.6808510638297872</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L38">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M38">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2376,125 +2532,221 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.00823937554206418</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <v>0.14</v>
+      </c>
+      <c r="F39">
+        <v>0.86</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2287</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K39">
-        <v>0.6785714285714286</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L39">
+        <v>44</v>
+      </c>
+      <c r="M39">
+        <v>44</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.005104408352668214</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>0.45</v>
+      </c>
+      <c r="F40">
+        <v>0.55</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4288</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="L40">
         <v>19</v>
       </c>
-      <c r="M39">
+      <c r="M40">
         <v>19</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L40">
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M40">
+      <c r="B41">
+        <v>0.005053449951409135</v>
+      </c>
+      <c r="C41">
+        <v>26</v>
+      </c>
+      <c r="D41">
         <v>46</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+      <c r="E41">
+        <v>0.43</v>
+      </c>
+      <c r="F41">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>5119</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="L41">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.004836759371221282</v>
+      </c>
+      <c r="C42">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.6307692307692307</v>
-      </c>
-      <c r="L41">
-        <v>41</v>
-      </c>
-      <c r="M41">
-        <v>41</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="D42">
+        <v>58</v>
+      </c>
+      <c r="E42">
+        <v>0.59</v>
+      </c>
+      <c r="F42">
+        <v>0.41</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>4938</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K42">
-        <v>0.5476190476190477</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="L42">
         <v>23</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K43">
-        <v>0.5342465753424658</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2506,21 +2758,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>0.5333333333333333</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2532,21 +2784,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K45">
-        <v>0.421875</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2558,15 +2810,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K46">
-        <v>0.3846153846153846</v>
+        <v>0.46875</v>
       </c>
       <c r="L46">
         <v>30</v>
@@ -2584,21 +2836,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K47">
-        <v>0.3684210526315789</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2610,15 +2862,15 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K48">
-        <v>0.3220338983050847</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L48">
         <v>19</v>
@@ -2636,59 +2888,189 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K49">
-        <v>0.02585487906588824</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K50">
-        <v>0.003687888198757764</v>
+        <v>0.03341687552213868</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M50">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N50">
+        <v>0.93</v>
+      </c>
+      <c r="O50">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K51">
+        <v>0.01259445843828715</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <v>0.77</v>
+      </c>
+      <c r="O51">
+        <v>0.23</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K52">
+        <v>0.008646616541353383</v>
+      </c>
+      <c r="L52">
+        <v>23</v>
+      </c>
+      <c r="M52">
+        <v>36</v>
+      </c>
+      <c r="N52">
+        <v>0.64</v>
+      </c>
+      <c r="O52">
+        <v>0.36</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53">
+        <v>0.006838294448913918</v>
+      </c>
+      <c r="L53">
+        <v>34</v>
+      </c>
+      <c r="M53">
+        <v>58</v>
+      </c>
+      <c r="N53">
         <v>0.59</v>
       </c>
-      <c r="O50">
+      <c r="O53">
         <v>0.41</v>
       </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>5133</v>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54">
+        <v>0.006581009088060169</v>
+      </c>
+      <c r="L54">
+        <v>21</v>
+      </c>
+      <c r="M54">
+        <v>31</v>
+      </c>
+      <c r="N54">
+        <v>0.68</v>
+      </c>
+      <c r="O54">
+        <v>0.32</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55">
+        <v>0.003891807744697412</v>
+      </c>
+      <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <v>46</v>
+      </c>
+      <c r="N55">
+        <v>0.43</v>
+      </c>
+      <c r="O55">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>5119</v>
       </c>
     </row>
   </sheetData>
